--- a/docs/Base CRUD.xlsx
+++ b/docs/Base CRUD.xlsx
@@ -1,107 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinmi\OneDrive\Escritorio\CRUD\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071CDB1-563F-49F7-AFF8-3CF8459AFD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos del CRUD" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos del CRUD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Fecha Inicio</t>
-  </si>
-  <si>
-    <t>Fecha Finalizado</t>
-  </si>
-  <si>
-    <t>nueva tarea</t>
-  </si>
-  <si>
-    <t>una tarea creada</t>
-  </si>
-  <si>
-    <t>finalizada</t>
-  </si>
-  <si>
-    <t>tarea actualizada</t>
-  </si>
-  <si>
-    <t>una tarea actualizada</t>
-  </si>
-  <si>
-    <t>por aprobar</t>
-  </si>
-  <si>
-    <t>hoy</t>
-  </si>
-  <si>
-    <t>probando</t>
-  </si>
-  <si>
-    <t>tarea de prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en espera </t>
-  </si>
-  <si>
-    <t>ayer</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,33 +54,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,143 +405,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col width="3.140625" customWidth="1" min="1" max="1"/>
+    <col width="16.28515625" customWidth="1" min="2" max="2"/>
+    <col width="20.140625" customWidth="1" min="3" max="3"/>
+    <col width="21.7109375" customWidth="1" min="4" max="4"/>
+    <col width="18.42578125" customWidth="1" min="5" max="5"/>
+    <col width="18.28515625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ID </t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Fecha Inicio</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Fecha Finalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>nueva tarea</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>una tarea creada</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>finalizada</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44423</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>loading...</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Nashee</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>In process pa</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Hoy</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>Ayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44423</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44423</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>probando</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>tarea de prueba</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>en espera</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>ayer</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>hoy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/Base CRUD.xlsx
+++ b/docs/Base CRUD.xlsx
@@ -3,45 +3,378 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24000" windowHeight="9825" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos del CRUD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -49,27 +382,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -186,7 +812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -221,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -395,12 +1021,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -412,178 +1032,242 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="63" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140000000000001" defaultRowHeight="15.75"/>
   <cols>
-    <col width="3.140625" customWidth="1" min="1" max="1"/>
-    <col width="16.28515625" customWidth="1" min="2" max="2"/>
-    <col width="20.140625" customWidth="1" min="3" max="3"/>
-    <col width="21.7109375" customWidth="1" min="4" max="4"/>
-    <col width="18.42578125" customWidth="1" min="5" max="5"/>
-    <col width="18.28515625" customWidth="1" min="6" max="6"/>
+    <col width="3.14" customWidth="1" min="1" max="1"/>
+    <col width="16.2866666666667" customWidth="1" min="2" max="2"/>
+    <col width="20.14" customWidth="1" min="3" max="3"/>
+    <col width="21.7133333333333" customWidth="1" min="4" max="4"/>
+    <col width="18.4266666666667" customWidth="1" min="5" max="5"/>
+    <col width="18.2866666666667" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">ID </t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Descripcion</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Fecha Inicio</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fecha Finalizado</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>nueva tarea</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>una tarea creada</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>finalizada</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44423</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44423</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Nro1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Numero 1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>FInalizado</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>6/09/2021</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>loading...</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Nashee</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>In process pa</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Hoy</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Ayer</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>probando</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>tarea de prueba</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>en espera</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>ayer</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>hoy</t>
-        </is>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Nro3</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Numero3</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>44459</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>44460</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Nro4</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Numero4</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Finalizado</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>44446</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>44447</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Nro5</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Numero 5</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>En espera</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2021</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>11/08/2021</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Nro6</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Numero 6</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Finalizado</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Hoy</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Nro7</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Numero 7</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>En espera</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>7/09/2021</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>7/09/2021</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/docs/Base CRUD.xlsx
+++ b/docs/Base CRUD.xlsx
@@ -1,285 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9825"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24000" windowHeight="9825" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos del CRUD" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos del CRUD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Fecha Inicio</t>
-  </si>
-  <si>
-    <t>Fecha Finalizado</t>
-  </si>
-  <si>
-    <t>Nro1</t>
-  </si>
-  <si>
-    <t>Numero 1</t>
-  </si>
-  <si>
-    <t>FInalizado</t>
-  </si>
-  <si>
-    <t>6/09/2021</t>
-  </si>
-  <si>
-    <t>Mañana</t>
-  </si>
-  <si>
-    <t>Nro2</t>
-  </si>
-  <si>
-    <t>Numero 2</t>
-  </si>
-  <si>
-    <t>Hoy</t>
-  </si>
-  <si>
-    <t>Nro3</t>
-  </si>
-  <si>
-    <t>Numero3</t>
-  </si>
-  <si>
-    <t>En proceso</t>
-  </si>
-  <si>
-    <t>Nro4</t>
-  </si>
-  <si>
-    <t>Numero4</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>Nro5</t>
-  </si>
-  <si>
-    <t>Numero 5</t>
-  </si>
-  <si>
-    <t>En espera</t>
-  </si>
-  <si>
-    <t>10/08/2021</t>
-  </si>
-  <si>
-    <t>11/08/2021</t>
-  </si>
-  <si>
-    <t>Nro6</t>
-  </si>
-  <si>
-    <t>Numero 6</t>
-  </si>
-  <si>
-    <t>Nro7</t>
-  </si>
-  <si>
-    <t>Numero 7</t>
-  </si>
-  <si>
-    <t>7/09/2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -580,169 +483,169 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,11 +701,74 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1062,187 +1028,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="63" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140000000000001" defaultRowHeight="15.75" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="3.14" customWidth="1"/>
-    <col min="2" max="2" width="16.2866666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.14" customWidth="1"/>
-    <col min="4" max="4" width="21.7133333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.4266666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.2866666666667" customWidth="1"/>
+    <col width="3.14" customWidth="1" min="1" max="1"/>
+    <col width="16.2866666666667" customWidth="1" min="2" max="2"/>
+    <col width="20.14" customWidth="1" min="3" max="3"/>
+    <col width="21.7133333333333" customWidth="1" min="4" max="4"/>
+    <col width="18.4266666666667" customWidth="1" min="5" max="5"/>
+    <col width="18.2866666666667" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ID </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha Inicio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha Finalizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Nro1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Numero 1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>7/09/2021</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Nro2</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Numero 2</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>FInalizado</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>44446</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Hoy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Nro3</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Numero3</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>44459</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Nro4</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Numero4</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Finalizado</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>44446</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Nro5</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Numero 5</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>En espera</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2021</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>11/08/2021</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Nro6</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Numero 6</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Finalizado</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Hoy</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>44446</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6">
-        <v>44459</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44446</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Nro7</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Numero 7</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>En espera</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>7/09/2021</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>7/09/2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>